--- a/outputs-HGR-r202/c__Gammaproteobacteria.xlsx
+++ b/outputs-HGR-r202/c__Gammaproteobacteria.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G162"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -524,6 +534,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -551,6 +566,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -578,6 +598,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -605,6 +630,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -632,6 +662,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -659,6 +694,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -686,6 +726,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -713,6 +758,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -740,6 +790,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -767,6 +822,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -794,6 +854,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -821,6 +886,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -848,6 +918,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -875,6 +950,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -902,6 +982,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -929,6 +1014,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -956,6 +1046,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -983,6 +1078,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1010,6 +1110,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1037,6 +1142,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1064,6 +1174,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1091,6 +1206,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1118,6 +1238,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1145,6 +1270,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1172,6 +1302,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1199,6 +1334,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1226,6 +1366,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1253,6 +1398,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1280,6 +1430,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1307,6 +1462,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1334,6 +1494,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1361,6 +1526,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1388,6 +1558,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1415,6 +1590,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1442,6 +1622,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1469,6 +1654,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1496,6 +1686,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1523,6 +1718,11 @@
           <t>o__Enterobacterales</t>
         </is>
       </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>o__Enterobacterales</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1550,6 +1750,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1577,6 +1782,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1604,6 +1814,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1631,6 +1846,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1658,6 +1878,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1685,6 +1910,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1712,6 +1942,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1739,6 +1974,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1766,6 +2006,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1793,6 +2038,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1820,6 +2070,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1847,6 +2102,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1874,6 +2134,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1901,6 +2166,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1928,6 +2198,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1955,6 +2230,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1982,6 +2262,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2009,6 +2294,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -2036,6 +2326,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2063,6 +2358,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -2090,6 +2390,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2117,6 +2422,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -2144,6 +2454,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -2171,6 +2486,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2198,6 +2518,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2225,6 +2550,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2252,6 +2582,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2279,6 +2614,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2306,6 +2646,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -2333,6 +2678,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -2360,6 +2710,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -2387,6 +2742,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -2414,6 +2774,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -2441,6 +2806,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -2468,6 +2838,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -2495,6 +2870,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -2522,6 +2902,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -2549,6 +2934,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -2576,6 +2966,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -2603,6 +2998,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -2630,6 +3030,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -2657,6 +3062,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -2684,6 +3094,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -2711,6 +3126,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -2738,6 +3158,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -2765,6 +3190,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -2792,6 +3222,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -2819,6 +3254,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -2846,6 +3286,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -2873,6 +3318,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -2900,6 +3350,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -2927,6 +3382,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -2954,6 +3414,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -2981,6 +3446,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -3008,6 +3478,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -3035,6 +3510,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -3062,6 +3542,11 @@
           <t>o__Enterobacterales</t>
         </is>
       </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>o__Enterobacterales</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -3089,6 +3574,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -3116,6 +3606,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -3143,6 +3638,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -3170,6 +3670,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -3197,6 +3702,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -3224,6 +3734,11 @@
           <t>o__Enterobacterales</t>
         </is>
       </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>o__Enterobacterales</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -3251,6 +3766,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -3278,6 +3798,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -3305,6 +3830,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -3332,6 +3862,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -3359,6 +3894,11 @@
           <t>o__Enterobacterales</t>
         </is>
       </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>o__Enterobacterales</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -3386,6 +3926,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -3413,6 +3958,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -3440,6 +3990,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -3467,6 +4022,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -3494,6 +4054,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -3521,6 +4086,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -3548,6 +4118,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -3575,6 +4150,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -3602,6 +4182,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -3629,6 +4214,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -3656,6 +4246,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -3683,6 +4278,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -3710,6 +4310,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -3737,6 +4342,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -3764,6 +4374,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -3791,6 +4406,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -3818,6 +4438,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -3845,6 +4470,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -3872,6 +4502,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -3899,6 +4534,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -3926,6 +4566,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -3953,6 +4598,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -3980,6 +4630,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -4007,6 +4662,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -4034,6 +4694,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -4061,6 +4726,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -4088,6 +4758,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -4115,6 +4790,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -4142,6 +4822,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -4169,6 +4854,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -4196,6 +4886,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -4223,6 +4918,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -4250,6 +4950,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -4277,6 +4982,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -4304,6 +5014,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -4331,6 +5046,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -4358,6 +5078,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -4385,6 +5110,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -4412,6 +5142,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -4439,6 +5174,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -4466,6 +5206,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -4493,6 +5238,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -4520,6 +5270,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -4547,6 +5302,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -4574,6 +5334,11 @@
           <t>o__Enterobacterales</t>
         </is>
       </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>o__Enterobacterales</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -4601,6 +5366,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -4628,6 +5398,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -4655,6 +5430,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -4682,6 +5462,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -4709,6 +5494,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -4736,6 +5526,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -4763,6 +5558,11 @@
           <t>o__Burkholderiales</t>
         </is>
       </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -4790,6 +5590,11 @@
           <t>o__Enterobacterales</t>
         </is>
       </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>o__Enterobacterales</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -4813,6 +5618,11 @@
         <v>0.9999158450506568</v>
       </c>
       <c r="G162" t="inlineStr">
+        <is>
+          <t>o__Enterobacterales</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
         <is>
           <t>o__Enterobacterales</t>
         </is>

--- a/outputs-HGR-r202/c__Gammaproteobacteria.xlsx
+++ b/outputs-HGR-r202/c__Gammaproteobacteria.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -703,23 +703,23 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12794.fa</t>
+          <t>even_MAG-GUT12482.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9980102991779322</v>
+        <v>0.9998989339427481</v>
       </c>
       <c r="C9" t="n">
-        <v>8.936320109189239e-06</v>
+        <v>2.241577244689615e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001980764466929966</v>
+        <v>7.865028378748711e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>3.502865702189224e-11</v>
+        <v>1.017505588481355e-12</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9980102991779322</v>
+        <v>0.9998989339427481</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -735,23 +735,23 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12991.fa</t>
+          <t>even_MAG-GUT12794.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9971915013994379</v>
+        <v>0.9980102991779322</v>
       </c>
       <c r="C10" t="n">
-        <v>1.517603651329359e-05</v>
+        <v>8.936320109189239e-06</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002793322547021039</v>
+        <v>0.001980764466929966</v>
       </c>
       <c r="E10" t="n">
-        <v>1.702786380963846e-11</v>
+        <v>3.502865702189224e-11</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9971915013994379</v>
+        <v>0.9980102991779322</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -767,23 +767,23 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13480.fa</t>
+          <t>even_MAG-GUT12944.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9993990561553824</v>
+        <v>0.9976947455735182</v>
       </c>
       <c r="C11" t="n">
-        <v>9.625877991824374e-05</v>
+        <v>0.0003536539731329912</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0005046850611124127</v>
+        <v>0.001951600446486507</v>
       </c>
       <c r="E11" t="n">
-        <v>3.587054642733782e-12</v>
+        <v>6.862340764688301e-12</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9993990561553824</v>
+        <v>0.9976947455735182</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -799,23 +799,23 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13637.fa</t>
+          <t>even_MAG-GUT12991.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9952774419906981</v>
+        <v>0.9971915013994379</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000642012215575193</v>
+        <v>1.517603651329359e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>0.004080545785909698</v>
+        <v>0.002793322547021039</v>
       </c>
       <c r="E12" t="n">
-        <v>7.81691053930233e-12</v>
+        <v>1.702786380963846e-11</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9952774419906981</v>
+        <v>0.9971915013994379</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -831,23 +831,23 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1384.fa</t>
+          <t>even_MAG-GUT13170.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9749400941243592</v>
+        <v>0.9550026126637017</v>
       </c>
       <c r="C13" t="n">
-        <v>0.004857503602068596</v>
+        <v>0.03024948772513968</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02020231023370656</v>
+        <v>0.01474789830103855</v>
       </c>
       <c r="E13" t="n">
-        <v>9.203986554512267e-08</v>
+        <v>1.310120184221354e-09</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9749400941243592</v>
+        <v>0.9550026126637017</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -863,23 +863,23 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13955.fa</t>
+          <t>even_MAG-GUT13480.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9987132899665284</v>
+        <v>0.9993990561553824</v>
       </c>
       <c r="C14" t="n">
-        <v>0.000164421640305698</v>
+        <v>9.625877991824374e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00112228833328558</v>
+        <v>0.0005046850611124127</v>
       </c>
       <c r="E14" t="n">
-        <v>5.988032964861785e-11</v>
+        <v>3.587054642733782e-12</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9987132899665284</v>
+        <v>0.9993990561553824</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -895,23 +895,23 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14050.fa</t>
+          <t>even_MAG-GUT13637.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9925230829891101</v>
+        <v>0.9952774419906981</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0006084323102348555</v>
+        <v>0.000642012215575193</v>
       </c>
       <c r="D15" t="n">
-        <v>0.006868484680127311</v>
+        <v>0.004080545785909698</v>
       </c>
       <c r="E15" t="n">
-        <v>2.052779923953593e-11</v>
+        <v>7.81691053930233e-12</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9925230829891101</v>
+        <v>0.9952774419906981</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -927,23 +927,23 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14125.fa</t>
+          <t>even_MAG-GUT13816.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9952774419906981</v>
+        <v>0.9998731100040879</v>
       </c>
       <c r="C16" t="n">
-        <v>0.000642012215575193</v>
+        <v>2.316775270513213e-06</v>
       </c>
       <c r="D16" t="n">
-        <v>0.004080545785909698</v>
+        <v>0.0001245732191964108</v>
       </c>
       <c r="E16" t="n">
-        <v>7.81691053930233e-12</v>
+        <v>1.445142987895546e-12</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9952774419906981</v>
+        <v>0.9998731100040879</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -959,23 +959,23 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14172.fa</t>
+          <t>even_MAG-GUT1384.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9996450624988076</v>
+        <v>0.9749400941243592</v>
       </c>
       <c r="C17" t="n">
-        <v>5.457027598737156e-05</v>
+        <v>0.004857503602068596</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0003003672232177743</v>
+        <v>0.02020231023370656</v>
       </c>
       <c r="E17" t="n">
-        <v>1.987144619550484e-12</v>
+        <v>9.203986554512267e-08</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9996450624988076</v>
+        <v>0.9749400941243592</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -991,23 +991,23 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14250.fa</t>
+          <t>even_MAG-GUT13881.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9982323716763845</v>
+        <v>0.9922558688408646</v>
       </c>
       <c r="C18" t="n">
-        <v>2.43106528353379e-05</v>
+        <v>0.0001081824501932867</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001743317645204772</v>
+        <v>0.007635948697489279</v>
       </c>
       <c r="E18" t="n">
-        <v>2.55756082119956e-11</v>
+        <v>1.145272819020422e-11</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9982323716763845</v>
+        <v>0.9922558688408646</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1023,23 +1023,23 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14827.fa</t>
+          <t>even_MAG-GUT13955.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.999390024156148</v>
+        <v>0.9987132899665284</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0001465460931530524</v>
+        <v>0.000164421640305698</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0004634295090842212</v>
+        <v>0.00112228833328558</v>
       </c>
       <c r="E19" t="n">
-        <v>2.416148373864143e-10</v>
+        <v>5.988032964861785e-11</v>
       </c>
       <c r="F19" t="n">
-        <v>0.999390024156148</v>
+        <v>0.9987132899665284</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1055,23 +1055,23 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16625.fa</t>
+          <t>even_MAG-GUT14050.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999693944669846</v>
+        <v>0.9925230829891101</v>
       </c>
       <c r="C20" t="n">
-        <v>2.9478703153737e-05</v>
+        <v>0.0006084323102348555</v>
       </c>
       <c r="D20" t="n">
-        <v>1.126814040762294e-06</v>
+        <v>0.006868484680127311</v>
       </c>
       <c r="E20" t="n">
-        <v>1.582086002090483e-11</v>
+        <v>2.052779923953593e-11</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999693944669846</v>
+        <v>0.9925230829891101</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1087,23 +1087,23 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16715.fa</t>
+          <t>even_MAG-GUT14125.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9997810390902601</v>
+        <v>0.9952774419906981</v>
       </c>
       <c r="C21" t="n">
-        <v>5.454194558696942e-06</v>
+        <v>0.000642012215575193</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0002135067132476257</v>
+        <v>0.004080545785909698</v>
       </c>
       <c r="E21" t="n">
-        <v>1.933720152418143e-12</v>
+        <v>7.81691053930233e-12</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9997810390902601</v>
+        <v>0.9952774419906981</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1119,23 +1119,23 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16984.fa</t>
+          <t>even_MAG-GUT14172.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9995480445870735</v>
+        <v>0.9996450624988076</v>
       </c>
       <c r="C22" t="n">
-        <v>4.543746245690266e-05</v>
+        <v>5.457027598737156e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0004065179160380637</v>
+        <v>0.0003003672232177743</v>
       </c>
       <c r="E22" t="n">
-        <v>3.443165863587463e-11</v>
+        <v>1.987144619550484e-12</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9995480445870735</v>
+        <v>0.9996450624988076</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1151,23 +1151,23 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17598.fa</t>
+          <t>even_MAG-GUT14250.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.999238405557253</v>
+        <v>0.9982323716763845</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0006038150622048445</v>
+        <v>2.43106528353379e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0001577416518187686</v>
+        <v>0.001743317645204772</v>
       </c>
       <c r="E23" t="n">
-        <v>3.772872330103489e-08</v>
+        <v>2.55756082119956e-11</v>
       </c>
       <c r="F23" t="n">
-        <v>0.999238405557253</v>
+        <v>0.9982323716763845</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1183,23 +1183,23 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1763.fa</t>
+          <t>even_MAG-GUT14532.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9938717659723539</v>
+        <v>0.995816323512706</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0005168274816939687</v>
+        <v>0.0003026899371644696</v>
       </c>
       <c r="D24" t="n">
-        <v>0.00561140653094674</v>
+        <v>0.003880986538571671</v>
       </c>
       <c r="E24" t="n">
-        <v>1.500530039974305e-11</v>
+        <v>1.155796980745796e-11</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9938717659723539</v>
+        <v>0.995816323512706</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1215,23 +1215,23 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18024.fa</t>
+          <t>even_MAG-GUT14572.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9991159390843989</v>
+        <v>0.9999287595559655</v>
       </c>
       <c r="C25" t="n">
-        <v>5.845669785187536e-05</v>
+        <v>8.072994214311344e-06</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0008256039457945586</v>
+        <v>6.316744555004636e-05</v>
       </c>
       <c r="E25" t="n">
-        <v>2.719548915203176e-10</v>
+        <v>4.270043661478361e-12</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9991159390843989</v>
+        <v>0.9999287595559655</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1247,23 +1247,23 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18361.fa</t>
+          <t>even_MAG-GUT14827.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9975357155358822</v>
+        <v>0.999390024156148</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0001525889789711463</v>
+        <v>0.0001465460931530524</v>
       </c>
       <c r="D26" t="n">
-        <v>0.002311695480876216</v>
+        <v>0.0004634295090842212</v>
       </c>
       <c r="E26" t="n">
-        <v>4.270595497828997e-12</v>
+        <v>2.416148373864143e-10</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9975357155358822</v>
+        <v>0.999390024156148</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1279,23 +1279,23 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18974.fa</t>
+          <t>even_MAG-GUT15246.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9943793919414701</v>
+        <v>0.9951782629902892</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0005839687906221947</v>
+        <v>0.001237883714365743</v>
       </c>
       <c r="D27" t="n">
-        <v>0.005036639252942553</v>
+        <v>0.003583853219226225</v>
       </c>
       <c r="E27" t="n">
-        <v>1.496500407155511e-11</v>
+        <v>7.611891334251608e-11</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9943793919414701</v>
+        <v>0.9951782629902892</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1311,23 +1311,23 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19561.fa</t>
+          <t>even_MAG-GUT15625.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.9994477126865042</v>
+        <v>0.9988515202970898</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0002682434043675316</v>
+        <v>0.001137282345762292</v>
       </c>
       <c r="D28" t="n">
-        <v>0.000284043828756115</v>
+        <v>1.119698859642581e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>8.037201189318656e-11</v>
+        <v>3.685512988170524e-10</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9994477126865042</v>
+        <v>0.9988515202970898</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1343,23 +1343,23 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19599.fa</t>
+          <t>even_MAG-GUT16149.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.998725591708941</v>
+        <v>0.9995046929842987</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0001208040982842771</v>
+        <v>1.555651108337965e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>0.001153604138926686</v>
+        <v>0.0004937513636789253</v>
       </c>
       <c r="E29" t="n">
-        <v>5.384806140770731e-11</v>
+        <v>9.140721342733007e-13</v>
       </c>
       <c r="F29" t="n">
-        <v>0.998725591708941</v>
+        <v>0.9995046929842987</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1375,23 +1375,23 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19853.fa</t>
+          <t>even_MAG-GUT16156.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.9998873342772162</v>
+        <v>0.9938617952996697</v>
       </c>
       <c r="C30" t="n">
-        <v>6.653346243974817e-06</v>
+        <v>0.004306913396981491</v>
       </c>
       <c r="D30" t="n">
-        <v>0.000106012375642998</v>
+        <v>0.001831291272047628</v>
       </c>
       <c r="E30" t="n">
-        <v>8.968894154547874e-13</v>
+        <v>3.130135410148836e-11</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9998873342772162</v>
+        <v>0.9938617952996697</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1407,23 +1407,23 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2110.fa</t>
+          <t>even_MAG-GUT16625.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9999462867001261</v>
+        <v>0.9999693944669846</v>
       </c>
       <c r="C31" t="n">
-        <v>7.215141234231592e-06</v>
+        <v>2.9478703153737e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>4.649815782774724e-05</v>
+        <v>1.126814040762294e-06</v>
       </c>
       <c r="E31" t="n">
-        <v>8.119494338178429e-13</v>
+        <v>1.582086002090483e-11</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9999462867001261</v>
+        <v>0.9999693944669846</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1439,23 +1439,23 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT21424.fa</t>
+          <t>even_MAG-GUT16715.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.9989129393102374</v>
+        <v>0.9997810390902601</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0005749590352086727</v>
+        <v>5.454194558696942e-06</v>
       </c>
       <c r="D32" t="n">
-        <v>0.000512101388522862</v>
+        <v>0.0002135067132476257</v>
       </c>
       <c r="E32" t="n">
-        <v>2.660309790572482e-10</v>
+        <v>1.933720152418143e-12</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9989129393102374</v>
+        <v>0.9997810390902601</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1471,23 +1471,23 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22049.fa</t>
+          <t>even_MAG-GUT16984.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9996748156298992</v>
+        <v>0.9995480445870735</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0002484609873338246</v>
+        <v>4.543746245690266e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>7.671020018000892e-05</v>
+        <v>0.0004065179160380637</v>
       </c>
       <c r="E33" t="n">
-        <v>1.318258677228507e-08</v>
+        <v>3.443165863587463e-11</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9996748156298992</v>
+        <v>0.9995480445870735</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1503,23 +1503,23 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22670.fa</t>
+          <t>even_MAG-GUT17271.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.9998739449016645</v>
+        <v>0.985196027792159</v>
       </c>
       <c r="C34" t="n">
-        <v>2.988371213758677e-05</v>
+        <v>0.003274687827185584</v>
       </c>
       <c r="D34" t="n">
-        <v>9.61713809374091e-05</v>
+        <v>0.01152928432363694</v>
       </c>
       <c r="E34" t="n">
-        <v>5.260461003983e-12</v>
+        <v>5.70184947156723e-11</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9998739449016645</v>
+        <v>0.985196027792159</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1535,23 +1535,23 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24564.fa</t>
+          <t>even_MAG-GUT17598.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9998417998286904</v>
+        <v>0.999238405557253</v>
       </c>
       <c r="C35" t="n">
-        <v>2.133862828777275e-05</v>
+        <v>0.0006038150622048445</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0001368615426410087</v>
+        <v>0.0001577416518187686</v>
       </c>
       <c r="E35" t="n">
-        <v>3.808856631460793e-13</v>
+        <v>3.772872330103489e-08</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9998417998286904</v>
+        <v>0.999238405557253</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1567,23 +1567,23 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24606.fa</t>
+          <t>even_MAG-GUT1763.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.999863207901197</v>
+        <v>0.9938717659723539</v>
       </c>
       <c r="C36" t="n">
-        <v>4.042410943537174e-06</v>
+        <v>0.0005168274816939687</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0001327496872957045</v>
+        <v>0.00561140653094674</v>
       </c>
       <c r="E36" t="n">
-        <v>5.637442498175278e-13</v>
+        <v>1.500530039974305e-11</v>
       </c>
       <c r="F36" t="n">
-        <v>0.999863207901197</v>
+        <v>0.9938717659723539</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1599,23 +1599,23 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24657.fa</t>
+          <t>even_MAG-GUT18024.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.9990916043040541</v>
+        <v>0.9991159390843989</v>
       </c>
       <c r="C37" t="n">
-        <v>1.266741645922108e-05</v>
+        <v>5.845669785187536e-05</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0008957254448660415</v>
+        <v>0.0008256039457945586</v>
       </c>
       <c r="E37" t="n">
-        <v>2.834620601359955e-09</v>
+        <v>2.719548915203176e-10</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9990916043040541</v>
+        <v>0.9991159390843989</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1631,23 +1631,23 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24765.fa</t>
+          <t>even_MAG-GUT18195.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.8250691035077711</v>
+        <v>0.9994207044795075</v>
       </c>
       <c r="C38" t="n">
-        <v>0.05038996660498717</v>
+        <v>0.0003957108847476274</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1245407971953669</v>
+        <v>0.0001835846053434664</v>
       </c>
       <c r="E38" t="n">
-        <v>1.326918747605213e-07</v>
+        <v>3.040148397222447e-11</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8250691035077711</v>
+        <v>0.9994207044795075</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1663,23 +1663,23 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24787.fa</t>
+          <t>even_MAG-GUT18210.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9986538674896956</v>
+        <v>0.9997737326257061</v>
       </c>
       <c r="C39" t="n">
-        <v>7.643260510984312e-06</v>
+        <v>0.0001974071050229446</v>
       </c>
       <c r="D39" t="n">
-        <v>0.001338489247893571</v>
+        <v>2.886022031822081e-05</v>
       </c>
       <c r="E39" t="n">
-        <v>1.899827587451059e-12</v>
+        <v>4.895264671783035e-11</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9986538674896956</v>
+        <v>0.9997737326257061</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1695,23 +1695,23 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24840.fa</t>
+          <t>even_MAG-GUT18312.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.9998146264553484</v>
+        <v>0.9889608930938182</v>
       </c>
       <c r="C40" t="n">
-        <v>2.911525826505503e-05</v>
+        <v>0.0005718412657746999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0001562582859326414</v>
+        <v>0.01046726562598419</v>
       </c>
       <c r="E40" t="n">
-        <v>4.540287738887348e-13</v>
+        <v>1.442296210887795e-11</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9998146264553484</v>
+        <v>0.9889608930938182</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1727,23 +1727,23 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24988.fa</t>
+          <t>even_MAG-GUT18361.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.9999785190116909</v>
+        <v>0.9975357155358822</v>
       </c>
       <c r="C41" t="n">
-        <v>5.542650351471102e-07</v>
+        <v>0.0001525889789711463</v>
       </c>
       <c r="D41" t="n">
-        <v>2.092672200664219e-05</v>
+        <v>0.002311695480876216</v>
       </c>
       <c r="E41" t="n">
-        <v>1.267190573852075e-12</v>
+        <v>4.270595497828997e-12</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9999785190116909</v>
+        <v>0.9975357155358822</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1759,55 +1759,55 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25022.fa</t>
+          <t>even_MAG-GUT1861.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.999557018070751</v>
+        <v>0.0001939670768765219</v>
       </c>
       <c r="C42" t="n">
-        <v>3.119290220463038e-05</v>
+        <v>0.999796070999501</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0004117887653260768</v>
+        <v>9.960360821522635e-06</v>
       </c>
       <c r="E42" t="n">
-        <v>2.617179640375701e-10</v>
+        <v>1.562800992261316e-09</v>
       </c>
       <c r="F42" t="n">
-        <v>0.999557018070751</v>
+        <v>0.999796070999501</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>o__Burkholderiales</t>
+          <t>o__Enterobacterales</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>o__Burkholderiales</t>
+          <t>o__Enterobacterales</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25055.fa</t>
+          <t>even_MAG-GUT18974.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9999739601974916</v>
+        <v>0.9943793919414701</v>
       </c>
       <c r="C43" t="n">
-        <v>3.268555477049543e-06</v>
+        <v>0.0005839687906221947</v>
       </c>
       <c r="D43" t="n">
-        <v>2.277124539003781e-05</v>
+        <v>0.005036639252942553</v>
       </c>
       <c r="E43" t="n">
-        <v>1.641405484135565e-12</v>
+        <v>1.496500407155511e-11</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9999739601974916</v>
+        <v>0.9943793919414701</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1823,23 +1823,23 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25263.fa</t>
+          <t>even_MAG-GUT19408.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.9949753715330837</v>
+        <v>0.9923009982383669</v>
       </c>
       <c r="C44" t="n">
-        <v>0.000178989597486993</v>
+        <v>0.003599709402314369</v>
       </c>
       <c r="D44" t="n">
-        <v>0.004845638829146856</v>
+        <v>0.004099292335788918</v>
       </c>
       <c r="E44" t="n">
-        <v>4.028240314261542e-11</v>
+        <v>2.352972586539184e-11</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9949753715330837</v>
+        <v>0.9923009982383669</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1855,23 +1855,23 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25307.fa</t>
+          <t>even_MAG-GUT19561.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9981165576512979</v>
+        <v>0.9994477126865042</v>
       </c>
       <c r="C45" t="n">
-        <v>2.0291152961681e-05</v>
+        <v>0.0002682434043675316</v>
       </c>
       <c r="D45" t="n">
-        <v>0.001863151168696598</v>
+        <v>0.000284043828756115</v>
       </c>
       <c r="E45" t="n">
-        <v>2.704376213893103e-11</v>
+        <v>8.037201189318656e-11</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9981165576512979</v>
+        <v>0.9994477126865042</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1887,23 +1887,23 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27032.fa</t>
+          <t>even_MAG-GUT19592.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.9993333833845248</v>
+        <v>0.9820495324405426</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0005228812382667754</v>
+        <v>0.01560042430917074</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0001437352380270482</v>
+        <v>0.00235004318807009</v>
       </c>
       <c r="E46" t="n">
-        <v>1.391813367774796e-10</v>
+        <v>6.221658091668977e-11</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9993333833845248</v>
+        <v>0.9820495324405426</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1919,23 +1919,23 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27097.fa</t>
+          <t>even_MAG-GUT19599.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.9996788362853017</v>
+        <v>0.998725591708941</v>
       </c>
       <c r="C47" t="n">
-        <v>1.305004001249201e-05</v>
+        <v>0.0001208040982842771</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0003081136736399784</v>
+        <v>0.001153604138926686</v>
       </c>
       <c r="E47" t="n">
-        <v>1.045705515342142e-12</v>
+        <v>5.384806140770731e-11</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9996788362853017</v>
+        <v>0.998725591708941</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1951,23 +1951,23 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29557.fa</t>
+          <t>even_MAG-GUT19853.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.9993896001651996</v>
+        <v>0.9998873342772162</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0001475684689462319</v>
+        <v>6.653346243974817e-06</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0004628312933422821</v>
+        <v>0.000106012375642998</v>
       </c>
       <c r="E48" t="n">
-        <v>7.251173601903936e-11</v>
+        <v>8.968894154547874e-13</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9993896001651996</v>
+        <v>0.9998873342772162</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1983,55 +1983,55 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29963.fa</t>
+          <t>even_MAG-GUT2060.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9996947643332559</v>
+        <v>0.002097049379571521</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0001170127447733392</v>
+        <v>0.9978711693944331</v>
       </c>
       <c r="D49" t="n">
-        <v>0.000188221919850881</v>
+        <v>3.177126269571059e-05</v>
       </c>
       <c r="E49" t="n">
-        <v>1.002119810872771e-09</v>
+        <v>9.963299757211435e-09</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9996947643332559</v>
+        <v>0.9978711693944331</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>o__Burkholderiales</t>
+          <t>o__Enterobacterales</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>o__Burkholderiales</t>
+          <t>o__Enterobacterales</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31546.fa</t>
+          <t>even_MAG-GUT2110.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.9962684393495589</v>
+        <v>0.9999462867001261</v>
       </c>
       <c r="C50" t="n">
-        <v>5.762384433696731e-05</v>
+        <v>7.215141234231592e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>0.003673936793072424</v>
+        <v>4.649815782774724e-05</v>
       </c>
       <c r="E50" t="n">
-        <v>1.303174630418546e-11</v>
+        <v>8.119494338178429e-13</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9962684393495589</v>
+        <v>0.9999462867001261</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2047,23 +2047,23 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32354.fa</t>
+          <t>even_MAG-GUT21424.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.9996940662300963</v>
+        <v>0.9989129393102374</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0001386322784278803</v>
+        <v>0.0005749590352086727</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0001673014888612566</v>
+        <v>0.000512101388522862</v>
       </c>
       <c r="E51" t="n">
-        <v>2.614624904609508e-12</v>
+        <v>2.660309790572482e-10</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9996940662300963</v>
+        <v>0.9989129393102374</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2079,23 +2079,23 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32469.fa</t>
+          <t>even_MAG-GUT22049.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.9899735831614623</v>
+        <v>0.9996748156298992</v>
       </c>
       <c r="C52" t="n">
-        <v>6.680111824036985e-05</v>
+        <v>0.0002484609873338246</v>
       </c>
       <c r="D52" t="n">
-        <v>0.009959615717151739</v>
+        <v>7.671020018000892e-05</v>
       </c>
       <c r="E52" t="n">
-        <v>3.145620927351731e-12</v>
+        <v>1.318258677228507e-08</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9899735831614623</v>
+        <v>0.9996748156298992</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2111,23 +2111,23 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33566.fa</t>
+          <t>even_MAG-GUT22670.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.9997015315304751</v>
+        <v>0.9998739449016645</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0001480935793249764</v>
+        <v>2.988371213758677e-05</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0001503746458469948</v>
+        <v>9.61713809374091e-05</v>
       </c>
       <c r="E53" t="n">
-        <v>2.443529806885358e-10</v>
+        <v>5.260461003983e-12</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9997015315304751</v>
+        <v>0.9998739449016645</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2143,23 +2143,23 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33836.fa</t>
+          <t>even_MAG-GUT24564.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.9960754408410686</v>
+        <v>0.9998417998286904</v>
       </c>
       <c r="C54" t="n">
-        <v>1.512626179605382e-05</v>
+        <v>2.133862828777275e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>0.003909432657353933</v>
+        <v>0.0001368615426410087</v>
       </c>
       <c r="E54" t="n">
-        <v>2.397812286182328e-10</v>
+        <v>3.808856631460793e-13</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9960754408410686</v>
+        <v>0.9998417998286904</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2175,23 +2175,23 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34245.fa</t>
+          <t>even_MAG-GUT24606.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.9975492706258089</v>
+        <v>0.999863207901197</v>
       </c>
       <c r="C55" t="n">
-        <v>3.302429046487316e-05</v>
+        <v>4.042410943537174e-06</v>
       </c>
       <c r="D55" t="n">
-        <v>0.002417704698886798</v>
+        <v>0.0001327496872957045</v>
       </c>
       <c r="E55" t="n">
-        <v>3.848393685163463e-10</v>
+        <v>5.637442498175278e-13</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9975492706258089</v>
+        <v>0.999863207901197</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2207,23 +2207,23 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3478.fa</t>
+          <t>even_MAG-GUT24616.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.8612446875325362</v>
+        <v>0.9999325117167119</v>
       </c>
       <c r="C56" t="n">
-        <v>0.04967714371899244</v>
+        <v>6.084176522004305e-06</v>
       </c>
       <c r="D56" t="n">
-        <v>0.08907688272446186</v>
+        <v>6.140410415475277e-05</v>
       </c>
       <c r="E56" t="n">
-        <v>1.286024009312317e-06</v>
+        <v>2.611212306400635e-12</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8612446875325362</v>
+        <v>0.9999325117167119</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2239,23 +2239,23 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34945.fa</t>
+          <t>even_MAG-GUT24657.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.9970895415410065</v>
+        <v>0.9990916043040541</v>
       </c>
       <c r="C57" t="n">
-        <v>1.327649573594264e-05</v>
+        <v>1.266741645922108e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>0.002897181760460603</v>
+        <v>0.0008957254448660415</v>
       </c>
       <c r="E57" t="n">
-        <v>2.027970358700496e-10</v>
+        <v>2.834620601359955e-09</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9970895415410065</v>
+        <v>0.9990916043040541</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2271,23 +2271,23 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35394.fa</t>
+          <t>even_MAG-GUT24765.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.9989485144141144</v>
+        <v>0.8250691035077711</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0004627960445719501</v>
+        <v>0.05038996660498717</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0005886894346482394</v>
+        <v>0.1245407971953669</v>
       </c>
       <c r="E58" t="n">
-        <v>1.066653991766334e-10</v>
+        <v>1.326918747605213e-07</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9989485144141144</v>
+        <v>0.8250691035077711</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2303,23 +2303,23 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35641.fa</t>
+          <t>even_MAG-GUT24787.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.9995940441556767</v>
+        <v>0.9986538674896956</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0001282928772798973</v>
+        <v>7.643260510984312e-06</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0002776625693054686</v>
+        <v>0.001338489247893571</v>
       </c>
       <c r="E59" t="n">
-        <v>3.977380419956269e-10</v>
+        <v>1.899827587451059e-12</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9995940441556767</v>
+        <v>0.9986538674896956</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2335,23 +2335,23 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36009.fa</t>
+          <t>even_MAG-GUT24840.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.9795571330494877</v>
+        <v>0.9998146264553484</v>
       </c>
       <c r="C60" t="n">
-        <v>0.006192252659584732</v>
+        <v>2.911525826505503e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01425040538360895</v>
+        <v>0.0001562582859326414</v>
       </c>
       <c r="E60" t="n">
-        <v>2.089073186892536e-07</v>
+        <v>4.540287738887348e-13</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9795571330494877</v>
+        <v>0.9998146264553484</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2367,23 +2367,23 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36218.fa</t>
+          <t>even_MAG-GUT24988.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.9991281498152199</v>
+        <v>0.9999785190116909</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0005055683647997559</v>
+        <v>5.542650351471102e-07</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0003662815183899026</v>
+        <v>2.092672200664219e-05</v>
       </c>
       <c r="E61" t="n">
-        <v>3.015905543893941e-10</v>
+        <v>1.267190573852075e-12</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9991281498152199</v>
+        <v>0.9999785190116909</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2399,23 +2399,23 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36683.fa</t>
+          <t>even_MAG-GUT25022.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.9997443416707366</v>
+        <v>0.999557018070751</v>
       </c>
       <c r="C62" t="n">
-        <v>6.907928021405533e-06</v>
+        <v>3.119290220463038e-05</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0002487503984166</v>
+        <v>0.0004117887653260768</v>
       </c>
       <c r="E62" t="n">
-        <v>2.825416762311292e-12</v>
+        <v>2.617179640375701e-10</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9997443416707366</v>
+        <v>0.999557018070751</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2431,23 +2431,23 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37389.fa</t>
+          <t>even_MAG-GUT25055.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.9995051004690118</v>
+        <v>0.9999739601974916</v>
       </c>
       <c r="C63" t="n">
-        <v>0.000167392892928757</v>
+        <v>3.268555477049543e-06</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0003275063104145926</v>
+        <v>2.277124539003781e-05</v>
       </c>
       <c r="E63" t="n">
-        <v>3.276448809951102e-10</v>
+        <v>1.641405484135565e-12</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9995051004690118</v>
+        <v>0.9999739601974916</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2463,23 +2463,23 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37939.fa</t>
+          <t>even_MAG-GUT25075.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.9996656446390372</v>
+        <v>0.9996874245076609</v>
       </c>
       <c r="C64" t="n">
-        <v>3.547603639312302e-05</v>
+        <v>9.312509902709304e-05</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0002988793241025071</v>
+        <v>0.0002194503036447521</v>
       </c>
       <c r="E64" t="n">
-        <v>4.670950666770191e-13</v>
+        <v>8.96672877936297e-11</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9996656446390372</v>
+        <v>0.9996874245076609</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2495,23 +2495,23 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37961.fa</t>
+          <t>even_MAG-GUT25223.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.9985281834124052</v>
+        <v>0.9933585573254603</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0009196702371663629</v>
+        <v>8.613288897710942e-05</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0005521395932889971</v>
+        <v>0.006555309777271252</v>
       </c>
       <c r="E65" t="n">
-        <v>6.757139385249089e-09</v>
+        <v>8.291267588531492e-12</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9985281834124052</v>
+        <v>0.9933585573254603</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2527,23 +2527,23 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38856.fa</t>
+          <t>even_MAG-GUT25263.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.9989193059878723</v>
+        <v>0.9949753715330837</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0006161328184853826</v>
+        <v>0.000178989597486993</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0004645599949221591</v>
+        <v>0.004845638829146856</v>
       </c>
       <c r="E66" t="n">
-        <v>1.198720342869178e-09</v>
+        <v>4.028240314261542e-11</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9989193059878723</v>
+        <v>0.9949753715330837</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2559,23 +2559,23 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38999.fa</t>
+          <t>even_MAG-GUT25307.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.9939148123516499</v>
+        <v>0.9981165576512979</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0001946991646165198</v>
+        <v>2.0291152961681e-05</v>
       </c>
       <c r="D67" t="n">
-        <v>0.005890488449001767</v>
+        <v>0.001863151168696598</v>
       </c>
       <c r="E67" t="n">
-        <v>3.47318887718824e-11</v>
+        <v>2.704376213893103e-11</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9939148123516499</v>
+        <v>0.9981165576512979</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2591,23 +2591,23 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39136.fa</t>
+          <t>even_MAG-GUT27032.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.9991719282979876</v>
+        <v>0.9993333833845248</v>
       </c>
       <c r="C68" t="n">
-        <v>5.893798654918109e-05</v>
+        <v>0.0005228812382667754</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0007691333864024935</v>
+        <v>0.0001437352380270482</v>
       </c>
       <c r="E68" t="n">
-        <v>3.290606397045231e-10</v>
+        <v>1.391813367774796e-10</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9991719282979876</v>
+        <v>0.9993333833845248</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2623,23 +2623,23 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39174.fa</t>
+          <t>even_MAG-GUT27097.fa</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.9992183538409879</v>
+        <v>0.9996788362853017</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0002800279576910547</v>
+        <v>1.305004001249201e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0005016180731930558</v>
+        <v>0.0003081136736399784</v>
       </c>
       <c r="E69" t="n">
-        <v>1.281281709402568e-10</v>
+        <v>1.045705515342142e-12</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9992183538409879</v>
+        <v>0.9996788362853017</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2655,23 +2655,23 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39460.fa</t>
+          <t>even_MAG-GUT29557.fa</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.9998267811522595</v>
+        <v>0.9993896001651996</v>
       </c>
       <c r="C70" t="n">
-        <v>7.514485225401282e-05</v>
+        <v>0.0001475684689462319</v>
       </c>
       <c r="D70" t="n">
-        <v>9.807399485969607e-05</v>
+        <v>0.0004628312933422821</v>
       </c>
       <c r="E70" t="n">
-        <v>6.267527481088512e-13</v>
+        <v>7.251173601903936e-11</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9998267811522595</v>
+        <v>0.9993896001651996</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2687,23 +2687,23 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3986.fa</t>
+          <t>even_MAG-GUT29963.fa</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.999248235321555</v>
+        <v>0.9996947643332559</v>
       </c>
       <c r="C71" t="n">
-        <v>1.070221552424235e-05</v>
+        <v>0.0001170127447733392</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0007410624601290024</v>
+        <v>0.000188221919850881</v>
       </c>
       <c r="E71" t="n">
-        <v>2.791840070623416e-12</v>
+        <v>1.002119810872771e-09</v>
       </c>
       <c r="F71" t="n">
-        <v>0.999248235321555</v>
+        <v>0.9996947643332559</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2719,23 +2719,23 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4260.fa</t>
+          <t>even_MAG-GUT30085.fa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.9999418719333316</v>
+        <v>0.9999877172072065</v>
       </c>
       <c r="C72" t="n">
-        <v>3.233547176592567e-05</v>
+        <v>4.019892548553766e-06</v>
       </c>
       <c r="D72" t="n">
-        <v>2.579259271174353e-05</v>
+        <v>8.262880211080552e-06</v>
       </c>
       <c r="E72" t="n">
-        <v>2.190721936061108e-12</v>
+        <v>2.003390032866808e-11</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9999418719333316</v>
+        <v>0.9999877172072065</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2751,23 +2751,23 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43146.fa</t>
+          <t>even_MAG-GUT31546.fa</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.9998598773068268</v>
+        <v>0.9962684393495589</v>
       </c>
       <c r="C73" t="n">
-        <v>3.314637475508053e-05</v>
+        <v>5.762384433696731e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0001069763113939503</v>
+        <v>0.003673936793072424</v>
       </c>
       <c r="E73" t="n">
-        <v>7.024185055804062e-12</v>
+        <v>1.303174630418546e-11</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9998598773068268</v>
+        <v>0.9962684393495589</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2783,23 +2783,23 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43227.fa</t>
+          <t>even_MAG-GUT31872.fa</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.9950639152297376</v>
+        <v>0.9909269740473283</v>
       </c>
       <c r="C74" t="n">
-        <v>0.001565371178431444</v>
+        <v>0.001217464421681797</v>
       </c>
       <c r="D74" t="n">
-        <v>0.003370713537441274</v>
+        <v>0.007855561510120923</v>
       </c>
       <c r="E74" t="n">
-        <v>5.438975186375879e-11</v>
+        <v>2.086890743028219e-11</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9950639152297376</v>
+        <v>0.9909269740473283</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2815,23 +2815,23 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4338.fa</t>
+          <t>even_MAG-GUT32354.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.9981947311384012</v>
+        <v>0.9996940662300963</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0001120328376677654</v>
+        <v>0.0001386322784278803</v>
       </c>
       <c r="D75" t="n">
-        <v>0.00169323590707583</v>
+        <v>0.0001673014888612566</v>
       </c>
       <c r="E75" t="n">
-        <v>1.168551402755789e-10</v>
+        <v>2.614624904609508e-12</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9981947311384012</v>
+        <v>0.9996940662300963</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2847,23 +2847,23 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44112.fa</t>
+          <t>even_MAG-GUT32469.fa</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.9637284802950549</v>
+        <v>0.9899735831614623</v>
       </c>
       <c r="C76" t="n">
-        <v>0.00266393849780992</v>
+        <v>6.680111824036985e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>0.03360742277414734</v>
+        <v>0.009959615717151739</v>
       </c>
       <c r="E76" t="n">
-        <v>1.584329879154816e-07</v>
+        <v>3.145620927351731e-12</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9637284802950549</v>
+        <v>0.9899735831614623</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2879,23 +2879,23 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44433.fa</t>
+          <t>even_MAG-GUT33566.fa</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.8768145958272369</v>
+        <v>0.9997015315304751</v>
       </c>
       <c r="C77" t="n">
-        <v>0.009126328772319671</v>
+        <v>0.0001480935793249764</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1140582299838422</v>
+        <v>0.0001503746458469948</v>
       </c>
       <c r="E77" t="n">
-        <v>8.454166010503851e-07</v>
+        <v>2.443529806885358e-10</v>
       </c>
       <c r="F77" t="n">
-        <v>0.8768145958272369</v>
+        <v>0.9997015315304751</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2911,23 +2911,23 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44512.fa</t>
+          <t>even_MAG-GUT33836.fa</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.9998964104205303</v>
+        <v>0.9960754408410686</v>
       </c>
       <c r="C78" t="n">
-        <v>9.350647216992495e-05</v>
+        <v>1.512626179605382e-05</v>
       </c>
       <c r="D78" t="n">
-        <v>1.008310619771113e-05</v>
+        <v>0.003909432657353933</v>
       </c>
       <c r="E78" t="n">
-        <v>1.101933280240513e-12</v>
+        <v>2.397812286182328e-10</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9998964104205303</v>
+        <v>0.9960754408410686</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2943,23 +2943,23 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46199.fa</t>
+          <t>even_MAG-GUT34245.fa</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.9998753903947346</v>
+        <v>0.9975492706258089</v>
       </c>
       <c r="C79" t="n">
-        <v>2.293232050814163e-06</v>
+        <v>3.302429046487316e-05</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0001223163712881835</v>
+        <v>0.002417704698886798</v>
       </c>
       <c r="E79" t="n">
-        <v>1.926317958788039e-12</v>
+        <v>3.848393685163463e-10</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9998753903947346</v>
+        <v>0.9975492706258089</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2975,23 +2975,23 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46265.fa</t>
+          <t>even_MAG-GUT3478.fa</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.9714711344766365</v>
+        <v>0.8612446875325362</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0005356597791940573</v>
+        <v>0.04967714371899244</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0279931595132001</v>
+        <v>0.08907688272446186</v>
       </c>
       <c r="E80" t="n">
-        <v>4.623096937218139e-08</v>
+        <v>1.286024009312317e-06</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9714711344766365</v>
+        <v>0.8612446875325362</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -3007,23 +3007,23 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46496.fa</t>
+          <t>even_MAG-GUT34945.fa</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.8144710241818394</v>
+        <v>0.9970895415410065</v>
       </c>
       <c r="C81" t="n">
-        <v>0.03761929421874833</v>
+        <v>1.327649573594264e-05</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1479086787170081</v>
+        <v>0.002897181760460603</v>
       </c>
       <c r="E81" t="n">
-        <v>1.002882404242285e-06</v>
+        <v>2.027970358700496e-10</v>
       </c>
       <c r="F81" t="n">
-        <v>0.8144710241818394</v>
+        <v>0.9970895415410065</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -3039,23 +3039,23 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47180.fa</t>
+          <t>even_MAG-GUT35394.fa</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.9987623874408044</v>
+        <v>0.9989485144141144</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0005752166660369653</v>
+        <v>0.0004627960445719501</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0006623957358261131</v>
+        <v>0.0005886894346482394</v>
       </c>
       <c r="E82" t="n">
-        <v>1.573326169739577e-10</v>
+        <v>1.066653991766334e-10</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9987623874408044</v>
+        <v>0.9989485144141144</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -3071,23 +3071,23 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48926.fa</t>
+          <t>even_MAG-GUT35641.fa</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.9141171682826393</v>
+        <v>0.9995940441556767</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0542863953486037</v>
+        <v>0.0001282928772798973</v>
       </c>
       <c r="D83" t="n">
-        <v>0.03159584587073432</v>
+        <v>0.0002776625693054686</v>
       </c>
       <c r="E83" t="n">
-        <v>5.904980226181125e-07</v>
+        <v>3.977380419956269e-10</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9141171682826393</v>
+        <v>0.9995940441556767</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3103,23 +3103,23 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49076.fa</t>
+          <t>even_MAG-GUT36009.fa</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.8549187372898981</v>
+        <v>0.9795571330494877</v>
       </c>
       <c r="C84" t="n">
-        <v>0.02759492520837469</v>
+        <v>0.006192252659584732</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1174852282710148</v>
+        <v>0.01425040538360895</v>
       </c>
       <c r="E84" t="n">
-        <v>1.109230712278561e-06</v>
+        <v>2.089073186892536e-07</v>
       </c>
       <c r="F84" t="n">
-        <v>0.8549187372898981</v>
+        <v>0.9795571330494877</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3135,23 +3135,23 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49107.fa</t>
+          <t>even_MAG-GUT36148.fa</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.9164435663182177</v>
+        <v>0.996984045627503</v>
       </c>
       <c r="C85" t="n">
-        <v>0.01855758721494527</v>
+        <v>0.0001033457227918321</v>
       </c>
       <c r="D85" t="n">
-        <v>0.06499754039916915</v>
+        <v>0.002912608640131186</v>
       </c>
       <c r="E85" t="n">
-        <v>1.306067668053796e-06</v>
+        <v>9.574023872342788e-12</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9164435663182177</v>
+        <v>0.996984045627503</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3167,23 +3167,23 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49445.fa</t>
+          <t>even_MAG-GUT36218.fa</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.8023326850798194</v>
+        <v>0.9991281498152199</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1030866237397432</v>
+        <v>0.0005055683647997559</v>
       </c>
       <c r="D86" t="n">
-        <v>0.09457725219207266</v>
+        <v>0.0003662815183899026</v>
       </c>
       <c r="E86" t="n">
-        <v>3.438988364797436e-06</v>
+        <v>3.015905543893941e-10</v>
       </c>
       <c r="F86" t="n">
-        <v>0.8023326850798194</v>
+        <v>0.9991281498152199</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3199,23 +3199,23 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49542.fa</t>
+          <t>even_MAG-GUT36683.fa</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.9517503480588911</v>
+        <v>0.9997443416707366</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0042835431334805</v>
+        <v>6.907928021405533e-06</v>
       </c>
       <c r="D87" t="n">
-        <v>0.04396556212838035</v>
+        <v>0.0002487503984166</v>
       </c>
       <c r="E87" t="n">
-        <v>5.466792480668128e-07</v>
+        <v>2.825416762311292e-12</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9517503480588911</v>
+        <v>0.9997443416707366</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3231,23 +3231,23 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5085.fa</t>
+          <t>even_MAG-GUT37389.fa</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.999735639578717</v>
+        <v>0.9995051004690118</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0002642582704903216</v>
+        <v>0.000167392892928757</v>
       </c>
       <c r="D88" t="n">
-        <v>1.021080282593934e-07</v>
+        <v>0.0003275063104145926</v>
       </c>
       <c r="E88" t="n">
-        <v>4.27645736586994e-11</v>
+        <v>3.276448809951102e-10</v>
       </c>
       <c r="F88" t="n">
-        <v>0.999735639578717</v>
+        <v>0.9995051004690118</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3263,23 +3263,23 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56545.fa</t>
+          <t>even_MAG-GUT37939.fa</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.9976033772002281</v>
+        <v>0.9996656446390372</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0009518827858873386</v>
+        <v>3.547603639312302e-05</v>
       </c>
       <c r="D89" t="n">
-        <v>0.001444740000796634</v>
+        <v>0.0002988793241025071</v>
       </c>
       <c r="E89" t="n">
-        <v>1.308807940521632e-11</v>
+        <v>4.670950666770191e-13</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9976033772002281</v>
+        <v>0.9996656446390372</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3295,23 +3295,23 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56566.fa</t>
+          <t>even_MAG-GUT37961.fa</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.9989447008853009</v>
+        <v>0.9985281834124052</v>
       </c>
       <c r="C90" t="n">
-        <v>2.637119585102158e-05</v>
+        <v>0.0009196702371663629</v>
       </c>
       <c r="D90" t="n">
-        <v>0.001028927916597952</v>
+        <v>0.0005521395932889971</v>
       </c>
       <c r="E90" t="n">
-        <v>2.250114459479784e-12</v>
+        <v>6.757139385249089e-09</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9989447008853009</v>
+        <v>0.9985281834124052</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3327,23 +3327,23 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56852.fa</t>
+          <t>even_MAG-GUT38016.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.9996489768973993</v>
+        <v>0.9990157926580018</v>
       </c>
       <c r="C91" t="n">
-        <v>1.002014413428424e-05</v>
+        <v>0.0008552746567015024</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0003410029552162253</v>
+        <v>0.0001289326297549503</v>
       </c>
       <c r="E91" t="n">
-        <v>3.250274461854003e-12</v>
+        <v>5.554176658294416e-11</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9996489768973993</v>
+        <v>0.9990157926580018</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3359,23 +3359,23 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57085.fa</t>
+          <t>even_MAG-GUT38856.fa</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.9990702050316193</v>
+        <v>0.9989193059878723</v>
       </c>
       <c r="C92" t="n">
-        <v>5.188930570538175e-05</v>
+        <v>0.0006161328184853826</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0008779056516054503</v>
+        <v>0.0004645599949221591</v>
       </c>
       <c r="E92" t="n">
-        <v>1.106999168309412e-11</v>
+        <v>1.198720342869178e-09</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9990702050316193</v>
+        <v>0.9989193059878723</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3391,23 +3391,23 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57416.fa</t>
+          <t>even_MAG-GUT38999.fa</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.9962173792439865</v>
+        <v>0.9939148123516499</v>
       </c>
       <c r="C93" t="n">
-        <v>2.539534089902872e-05</v>
+        <v>0.0001946991646165198</v>
       </c>
       <c r="D93" t="n">
-        <v>0.003757224699339485</v>
+        <v>0.005890488449001767</v>
       </c>
       <c r="E93" t="n">
-        <v>7.157750433236448e-10</v>
+        <v>3.47318887718824e-11</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9962173792439865</v>
+        <v>0.9939148123516499</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3423,23 +3423,23 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58179.fa</t>
+          <t>even_MAG-GUT39108.fa</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.9991798604437829</v>
+        <v>0.9999999286401791</v>
       </c>
       <c r="C94" t="n">
-        <v>1.449133480667611e-05</v>
+        <v>2.47953468274254e-09</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0008056482204934369</v>
+        <v>6.763383588210266e-08</v>
       </c>
       <c r="E94" t="n">
-        <v>9.169944635915428e-13</v>
+        <v>1.246450402372055e-09</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9991798604437829</v>
+        <v>0.9999999286401791</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3455,23 +3455,23 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60374.fa</t>
+          <t>even_MAG-GUT39136.fa</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.9987648019189083</v>
+        <v>0.9991719282979876</v>
       </c>
       <c r="C95" t="n">
-        <v>2.077205107370111e-05</v>
+        <v>5.893798654918109e-05</v>
       </c>
       <c r="D95" t="n">
-        <v>0.001214425938781823</v>
+        <v>0.0007691333864024935</v>
       </c>
       <c r="E95" t="n">
-        <v>9.123600542464227e-11</v>
+        <v>3.290606397045231e-10</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9987648019189083</v>
+        <v>0.9991719282979876</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3487,23 +3487,23 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61637.fa</t>
+          <t>even_MAG-GUT39174.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.9910360317920321</v>
+        <v>0.9992183538409879</v>
       </c>
       <c r="C96" t="n">
-        <v>0.004210696145186585</v>
+        <v>0.0002800279576910547</v>
       </c>
       <c r="D96" t="n">
-        <v>0.004753271920441391</v>
+        <v>0.0005016180731930558</v>
       </c>
       <c r="E96" t="n">
-        <v>1.423398945741398e-10</v>
+        <v>1.281281709402568e-10</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9910360317920321</v>
+        <v>0.9992183538409879</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3519,23 +3519,23 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61794.fa</t>
+          <t>even_MAG-GUT3922.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.9998337208930796</v>
+        <v>0.9999999054357845</v>
       </c>
       <c r="C97" t="n">
-        <v>2.986454780485058e-05</v>
+        <v>1.190386791250203e-09</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0001364145543889577</v>
+        <v>9.274842082865763e-08</v>
       </c>
       <c r="E97" t="n">
-        <v>4.726484099885344e-12</v>
+        <v>6.254079497736551e-10</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9998337208930796</v>
+        <v>0.9999999054357845</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3551,23 +3551,23 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62134.fa</t>
+          <t>even_MAG-GUT39245.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.9992874718206152</v>
+        <v>0.9922543610603358</v>
       </c>
       <c r="C98" t="n">
-        <v>3.082843910436505e-05</v>
+        <v>0.006918395307466193</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0006816997382799127</v>
+        <v>0.0008272435970433528</v>
       </c>
       <c r="E98" t="n">
-        <v>2.000611010146992e-12</v>
+        <v>3.515448330612441e-11</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9992874718206152</v>
+        <v>0.9922543610603358</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3583,23 +3583,23 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62370.fa</t>
+          <t>even_MAG-GUT39460.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.997835601642635</v>
+        <v>0.9998267811522595</v>
       </c>
       <c r="C99" t="n">
-        <v>6.918269894181883e-05</v>
+        <v>7.514485225401282e-05</v>
       </c>
       <c r="D99" t="n">
-        <v>0.002095215635543054</v>
+        <v>9.807399485969607e-05</v>
       </c>
       <c r="E99" t="n">
-        <v>2.288013374312971e-11</v>
+        <v>6.267527481088512e-13</v>
       </c>
       <c r="F99" t="n">
-        <v>0.997835601642635</v>
+        <v>0.9998267811522595</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3615,23 +3615,23 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62468.fa</t>
+          <t>even_MAG-GUT3986.fa</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.9999856302431298</v>
+        <v>0.999248235321555</v>
       </c>
       <c r="C100" t="n">
-        <v>4.254086098185088e-06</v>
+        <v>1.070221552424235e-05</v>
       </c>
       <c r="D100" t="n">
-        <v>1.011566776550851e-05</v>
+        <v>0.0007410624601290024</v>
       </c>
       <c r="E100" t="n">
-        <v>3.006455947701792e-12</v>
+        <v>2.791840070623416e-12</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9999856302431298</v>
+        <v>0.999248235321555</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3647,23 +3647,23 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6615.fa</t>
+          <t>even_MAG-GUT4260.fa</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.9997450776885418</v>
+        <v>0.9999418719333316</v>
       </c>
       <c r="C101" t="n">
-        <v>5.539292041785982e-05</v>
+        <v>3.233547176592567e-05</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0001995293885645287</v>
+        <v>2.579259271174353e-05</v>
       </c>
       <c r="E101" t="n">
-        <v>2.475977394974651e-12</v>
+        <v>2.190721936061108e-12</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9997450776885418</v>
+        <v>0.9999418719333316</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -3679,23 +3679,23 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66915.fa</t>
+          <t>even_MAG-GUT43146.fa</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.9995790668576187</v>
+        <v>0.9998598773068268</v>
       </c>
       <c r="C102" t="n">
-        <v>5.120400161552161e-05</v>
+        <v>3.314637475508053e-05</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0003697286361834119</v>
+        <v>0.0001069763113939503</v>
       </c>
       <c r="E102" t="n">
-        <v>5.04582304239909e-10</v>
+        <v>7.024185055804062e-12</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9995790668576187</v>
+        <v>0.9998598773068268</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3711,23 +3711,23 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6727.fa</t>
+          <t>even_MAG-GUT43227.fa</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.9995828851494168</v>
+        <v>0.9950639152297376</v>
       </c>
       <c r="C103" t="n">
-        <v>9.026171059943384e-05</v>
+        <v>0.001565371178431444</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0003268531346895258</v>
+        <v>0.003370713537441274</v>
       </c>
       <c r="E103" t="n">
-        <v>5.294277176904082e-12</v>
+        <v>5.438975186375879e-11</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9995828851494168</v>
+        <v>0.9950639152297376</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3743,23 +3743,23 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6753.fa</t>
+          <t>even_MAG-GUT43254.fa</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.9996139697138627</v>
+        <v>0.9972884677407958</v>
       </c>
       <c r="C104" t="n">
-        <v>0.000200079673358623</v>
+        <v>0.001367481029392922</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0001859505539518225</v>
+        <v>0.00134405121180191</v>
       </c>
       <c r="E104" t="n">
-        <v>5.882685370079533e-11</v>
+        <v>1.800946422097207e-11</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9996139697138627</v>
+        <v>0.9972884677407958</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3775,23 +3775,23 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67531.fa</t>
+          <t>even_MAG-GUT4338.fa</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.9996773223538429</v>
+        <v>0.9981947311384012</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0001122050281455792</v>
+        <v>0.0001120328376677654</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0002104726149949413</v>
+        <v>0.00169323590707583</v>
       </c>
       <c r="E105" t="n">
-        <v>3.016454185994035e-12</v>
+        <v>1.168551402755789e-10</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9996773223538429</v>
+        <v>0.9981947311384012</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3807,55 +3807,55 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6784.fa</t>
+          <t>even_MAG-GUT43440.fa</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.9946816599487408</v>
+        <v>0.001645791884912294</v>
       </c>
       <c r="C106" t="n">
-        <v>0.002326179076121521</v>
+        <v>0.9983422826038986</v>
       </c>
       <c r="D106" t="n">
-        <v>0.002992160809415304</v>
+        <v>1.192218142903185e-05</v>
       </c>
       <c r="E106" t="n">
-        <v>1.657223771998594e-10</v>
+        <v>3.329760020920966e-09</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9946816599487408</v>
+        <v>0.9983422826038986</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>o__Burkholderiales</t>
+          <t>o__Enterobacterales</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>o__Burkholderiales</t>
+          <t>o__Enterobacterales</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68234.fa</t>
+          <t>even_MAG-GUT44112.fa</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.9367194156672077</v>
+        <v>0.9637284802950549</v>
       </c>
       <c r="C107" t="n">
-        <v>0.01763098734030056</v>
+        <v>0.00266393849780992</v>
       </c>
       <c r="D107" t="n">
-        <v>0.04564931378121401</v>
+        <v>0.03360742277414734</v>
       </c>
       <c r="E107" t="n">
-        <v>2.832112777100451e-07</v>
+        <v>1.584329879154816e-07</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9367194156672077</v>
+        <v>0.9637284802950549</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -3871,23 +3871,23 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68537.fa</t>
+          <t>even_MAG-GUT44433.fa</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.7653553971389785</v>
+        <v>0.8768145958272369</v>
       </c>
       <c r="C108" t="n">
-        <v>0.1240603707034436</v>
+        <v>0.009126328772319671</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1105807934061036</v>
+        <v>0.1140582299838422</v>
       </c>
       <c r="E108" t="n">
-        <v>3.438751474220336e-06</v>
+        <v>8.454166010503851e-07</v>
       </c>
       <c r="F108" t="n">
-        <v>0.7653553971389785</v>
+        <v>0.8768145958272369</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -3903,23 +3903,23 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68996.fa</t>
+          <t>even_MAG-GUT44512.fa</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.9998504127756583</v>
+        <v>0.9998964104205303</v>
       </c>
       <c r="C109" t="n">
-        <v>2.658554479523021e-05</v>
+        <v>9.350647216992495e-05</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0001230016782289023</v>
+        <v>1.008310619771113e-05</v>
       </c>
       <c r="E109" t="n">
-        <v>1.317633626495827e-12</v>
+        <v>1.101933280240513e-12</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9998504127756583</v>
+        <v>0.9998964104205303</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -3935,23 +3935,23 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7016.fa</t>
+          <t>even_MAG-GUT46199.fa</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.9999858693769753</v>
+        <v>0.9998753903947346</v>
       </c>
       <c r="C110" t="n">
-        <v>3.912873871928124e-07</v>
+        <v>2.293232050814163e-06</v>
       </c>
       <c r="D110" t="n">
-        <v>1.373933371081821e-05</v>
+        <v>0.0001223163712881835</v>
       </c>
       <c r="E110" t="n">
-        <v>1.92674910980326e-12</v>
+        <v>1.926317958788039e-12</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9999858693769753</v>
+        <v>0.9998753903947346</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -3967,23 +3967,23 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7042.fa</t>
+          <t>even_MAG-GUT46265.fa</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.9991254148168731</v>
+        <v>0.9714711344766365</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0002475472706226979</v>
+        <v>0.0005356597791940573</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0006270378907224929</v>
+        <v>0.0279931595132001</v>
       </c>
       <c r="E111" t="n">
-        <v>2.178157988185357e-11</v>
+        <v>4.623096937218139e-08</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9991254148168731</v>
+        <v>0.9714711344766365</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -3999,23 +3999,23 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73967.fa</t>
+          <t>even_MAG-GUT46496.fa</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.9994325798221091</v>
+        <v>0.8144710241818394</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0003078210096937368</v>
+        <v>0.03761929421874833</v>
       </c>
       <c r="D112" t="n">
-        <v>0.000259599052082339</v>
+        <v>0.1479086787170081</v>
       </c>
       <c r="E112" t="n">
-        <v>1.161148093987203e-10</v>
+        <v>1.002882404242285e-06</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9994325798221091</v>
+        <v>0.8144710241818394</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -4031,23 +4031,23 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74311.fa</t>
+          <t>even_MAG-GUT47180.fa</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.9999472160287344</v>
+        <v>0.9987623874408044</v>
       </c>
       <c r="C113" t="n">
-        <v>1.818466994774623e-05</v>
+        <v>0.0005752166660369653</v>
       </c>
       <c r="D113" t="n">
-        <v>3.459930076215781e-05</v>
+        <v>0.0006623957358261131</v>
       </c>
       <c r="E113" t="n">
-        <v>5.557735319314154e-13</v>
+        <v>1.573326169739577e-10</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9999472160287344</v>
+        <v>0.9987623874408044</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -4063,23 +4063,23 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7546.fa</t>
+          <t>even_MAG-GUT48773.fa</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.2982625328941562</v>
+        <v>1.559548619514119e-05</v>
       </c>
       <c r="C114" t="n">
-        <v>0.4785695707245523</v>
+        <v>0.9998802776060179</v>
       </c>
       <c r="D114" t="n">
-        <v>0.2231678042083946</v>
+        <v>0.0001041023848828861</v>
       </c>
       <c r="E114" t="n">
-        <v>9.217289698845346e-08</v>
+        <v>2.452290389373568e-08</v>
       </c>
       <c r="F114" t="n">
-        <v>0.4785695707245523</v>
+        <v>0.9998802776060179</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -4095,23 +4095,23 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT75471.fa</t>
+          <t>even_MAG-GUT48926.fa</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.9982725693822172</v>
+        <v>0.9141171682826393</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0001257807954343498</v>
+        <v>0.0542863953486037</v>
       </c>
       <c r="D115" t="n">
-        <v>0.00160164971286214</v>
+        <v>0.03159584587073432</v>
       </c>
       <c r="E115" t="n">
-        <v>1.09486517473329e-10</v>
+        <v>5.904980226181125e-07</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9982725693822172</v>
+        <v>0.9141171682826393</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -4127,23 +4127,23 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT75788.fa</t>
+          <t>even_MAG-GUT49076.fa</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.9999670750257585</v>
+        <v>0.8549187372898981</v>
       </c>
       <c r="C116" t="n">
-        <v>3.282455914372215e-05</v>
+        <v>0.02759492520837469</v>
       </c>
       <c r="D116" t="n">
-        <v>1.004088754664592e-07</v>
+        <v>0.1174852282710148</v>
       </c>
       <c r="E116" t="n">
-        <v>6.222377163871885e-12</v>
+        <v>1.109230712278561e-06</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9999670750257585</v>
+        <v>0.8549187372898981</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -4159,23 +4159,23 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT75820.fa</t>
+          <t>even_MAG-GUT49107.fa</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.999916040117572</v>
+        <v>0.9164435663182177</v>
       </c>
       <c r="C117" t="n">
-        <v>8.392124898076504e-05</v>
+        <v>0.01855758721494527</v>
       </c>
       <c r="D117" t="n">
-        <v>3.861539751196583e-08</v>
+        <v>0.06499754039916915</v>
       </c>
       <c r="E117" t="n">
-        <v>1.804955792494502e-11</v>
+        <v>1.306067668053796e-06</v>
       </c>
       <c r="F117" t="n">
-        <v>0.999916040117572</v>
+        <v>0.9164435663182177</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -4191,23 +4191,23 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT75834.fa</t>
+          <t>even_MAG-GUT49445.fa</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.9999909759862957</v>
+        <v>0.8023326850798194</v>
       </c>
       <c r="C118" t="n">
-        <v>8.957177975668067e-06</v>
+        <v>0.1030866237397432</v>
       </c>
       <c r="D118" t="n">
-        <v>6.671862232776915e-08</v>
+        <v>0.09457725219207266</v>
       </c>
       <c r="E118" t="n">
-        <v>1.171063870712983e-10</v>
+        <v>3.438988364797436e-06</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9999909759862957</v>
+        <v>0.8023326850798194</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -4223,55 +4223,55 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77563.fa</t>
+          <t>even_MAG-GUT49487.fa</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.9992354476789524</v>
+        <v>0.001050356868181205</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0001025973502133852</v>
+        <v>0.998932697616172</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0006619546973478146</v>
+        <v>1.693147938701525e-05</v>
       </c>
       <c r="E119" t="n">
-        <v>2.734864504096537e-10</v>
+        <v>1.403625990581913e-08</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9992354476789524</v>
+        <v>0.998932697616172</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>o__Burkholderiales</t>
+          <t>o__Enterobacterales</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>o__Burkholderiales</t>
+          <t>o__Enterobacterales</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78371.fa</t>
+          <t>even_MAG-GUT49542.fa</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.9999897429290217</v>
+        <v>0.9517503480588911</v>
       </c>
       <c r="C120" t="n">
-        <v>1.021806582854233e-05</v>
+        <v>0.0042835431334805</v>
       </c>
       <c r="D120" t="n">
-        <v>3.893842475267975e-08</v>
+        <v>0.04396556212838035</v>
       </c>
       <c r="E120" t="n">
-        <v>6.672509365167242e-11</v>
+        <v>5.466792480668128e-07</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9999897429290217</v>
+        <v>0.9517503480588911</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -4287,23 +4287,23 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80449.fa</t>
+          <t>even_MAG-GUT5085.fa</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.9993947332017543</v>
+        <v>0.999735639578717</v>
       </c>
       <c r="C121" t="n">
-        <v>7.430319746564039e-05</v>
+        <v>0.0002642582704903216</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0005309635051932957</v>
+        <v>1.021080282593934e-07</v>
       </c>
       <c r="E121" t="n">
-        <v>9.558655083639645e-11</v>
+        <v>4.27645736586994e-11</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9993947332017543</v>
+        <v>0.999735639578717</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -4319,23 +4319,23 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80685.fa</t>
+          <t>even_MAG-GUT56545.fa</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.8689883531791656</v>
+        <v>0.9976033772002281</v>
       </c>
       <c r="C122" t="n">
-        <v>0.003178160903820011</v>
+        <v>0.0009518827858873386</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1278333573582981</v>
+        <v>0.001444740000796634</v>
       </c>
       <c r="E122" t="n">
-        <v>1.285587162202795e-07</v>
+        <v>1.308807940521632e-11</v>
       </c>
       <c r="F122" t="n">
-        <v>0.8689883531791656</v>
+        <v>0.9976033772002281</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -4351,23 +4351,23 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81145.fa</t>
+          <t>even_MAG-GUT56566.fa</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.9977263769571442</v>
+        <v>0.9989447008853009</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0002277524227642383</v>
+        <v>2.637119585102158e-05</v>
       </c>
       <c r="D123" t="n">
-        <v>0.00204587060230581</v>
+        <v>0.001028927916597952</v>
       </c>
       <c r="E123" t="n">
-        <v>1.778584275444814e-11</v>
+        <v>2.250114459479784e-12</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9977263769571442</v>
+        <v>0.9989447008853009</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -4383,23 +4383,23 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81204.fa</t>
+          <t>even_MAG-GUT56852.fa</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.9982201784605205</v>
+        <v>0.9996489768973993</v>
       </c>
       <c r="C124" t="n">
-        <v>5.606763404730646e-05</v>
+        <v>1.002014413428424e-05</v>
       </c>
       <c r="D124" t="n">
-        <v>0.001723753874525371</v>
+        <v>0.0003410029552162253</v>
       </c>
       <c r="E124" t="n">
-        <v>3.090670670920895e-11</v>
+        <v>3.250274461854003e-12</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9982201784605205</v>
+        <v>0.9996489768973993</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -4415,55 +4415,55 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT8151.fa</t>
+          <t>even_MAG-GUT57085.fa</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1.403051467987774e-08</v>
+        <v>0.9990702050316193</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9996943093761634</v>
+        <v>5.188930570538175e-05</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0003056750044104829</v>
+        <v>0.0008779056516054503</v>
       </c>
       <c r="E125" t="n">
-        <v>1.588911317491942e-09</v>
+        <v>1.106999168309412e-11</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9996943093761634</v>
+        <v>0.9990702050316193</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>o__Enterobacterales</t>
+          <t>o__Burkholderiales</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>o__Enterobacterales</t>
+          <t>o__Burkholderiales</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82115.fa</t>
+          <t>even_MAG-GUT57416.fa</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.9999417790688213</v>
+        <v>0.9962173792439865</v>
       </c>
       <c r="C126" t="n">
-        <v>2.099264337897174e-05</v>
+        <v>2.539534089902872e-05</v>
       </c>
       <c r="D126" t="n">
-        <v>3.722828629116696e-05</v>
+        <v>0.003757224699339485</v>
       </c>
       <c r="E126" t="n">
-        <v>1.508619540719803e-12</v>
+        <v>7.157750433236448e-10</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9999417790688213</v>
+        <v>0.9962173792439865</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -4479,23 +4479,23 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83592.fa</t>
+          <t>even_MAG-GUT57726.fa</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.9987068660645182</v>
+        <v>0.9995267977862785</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0001134577650614496</v>
+        <v>0.0004376058316491498</v>
       </c>
       <c r="D127" t="n">
-        <v>0.001179659815295057</v>
+        <v>3.559634125706949e-05</v>
       </c>
       <c r="E127" t="n">
-        <v>1.635512538378168e-08</v>
+        <v>4.081533593336407e-11</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9987068660645182</v>
+        <v>0.9995267977862785</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -4511,23 +4511,23 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84859.fa</t>
+          <t>even_MAG-GUT58179.fa</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.9994926070215652</v>
+        <v>0.9991798604437829</v>
       </c>
       <c r="C128" t="n">
-        <v>6.837020684106948e-05</v>
+        <v>1.449133480667611e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>0.000439015786578076</v>
+        <v>0.0008056482204934369</v>
       </c>
       <c r="E128" t="n">
-        <v>6.98501584190079e-09</v>
+        <v>9.169944635915428e-13</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9994926070215652</v>
+        <v>0.9991798604437829</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -4543,23 +4543,23 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90614.fa</t>
+          <t>even_MAG-GUT58214.fa</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.8784509481581463</v>
+        <v>0.9956271358013294</v>
       </c>
       <c r="C129" t="n">
-        <v>0.1147039116987632</v>
+        <v>0.003445386651895361</v>
       </c>
       <c r="D129" t="n">
-        <v>0.006845139622014265</v>
+        <v>0.0009274775414640701</v>
       </c>
       <c r="E129" t="n">
-        <v>5.210762225951355e-10</v>
+        <v>5.311001476930466e-12</v>
       </c>
       <c r="F129" t="n">
-        <v>0.8784509481581463</v>
+        <v>0.9956271358013294</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -4575,23 +4575,23 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90671.fa</t>
+          <t>even_MAG-GUT60374.fa</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.5025326918440816</v>
+        <v>0.9987648019189083</v>
       </c>
       <c r="C130" t="n">
-        <v>0.3665638400546075</v>
+        <v>2.077205107370111e-05</v>
       </c>
       <c r="D130" t="n">
-        <v>0.130903467628604</v>
+        <v>0.001214425938781823</v>
       </c>
       <c r="E130" t="n">
-        <v>4.727069546128784e-10</v>
+        <v>9.123600542464227e-11</v>
       </c>
       <c r="F130" t="n">
-        <v>0.5025326918440816</v>
+        <v>0.9987648019189083</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -4607,23 +4607,23 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90675.fa</t>
+          <t>even_MAG-GUT61409.fa</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.611562860177749</v>
+        <v>0.9937488506584999</v>
       </c>
       <c r="C131" t="n">
-        <v>0.2916089188294001</v>
+        <v>0.003126962473289806</v>
       </c>
       <c r="D131" t="n">
-        <v>0.09682821560235871</v>
+        <v>0.003124186863732877</v>
       </c>
       <c r="E131" t="n">
-        <v>5.390492429639251e-09</v>
+        <v>4.477342987426388e-12</v>
       </c>
       <c r="F131" t="n">
-        <v>0.611562860177749</v>
+        <v>0.9937488506584999</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -4639,23 +4639,23 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90775.fa</t>
+          <t>even_MAG-GUT61637.fa</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.7407944054474063</v>
+        <v>0.9910360317920321</v>
       </c>
       <c r="C132" t="n">
-        <v>0.2372926783503566</v>
+        <v>0.004210696145186585</v>
       </c>
       <c r="D132" t="n">
-        <v>0.02191291594366149</v>
+        <v>0.004753271920441391</v>
       </c>
       <c r="E132" t="n">
-        <v>2.585756231168987e-10</v>
+        <v>1.423398945741398e-10</v>
       </c>
       <c r="F132" t="n">
-        <v>0.7407944054474063</v>
+        <v>0.9910360317920321</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -4671,23 +4671,23 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90995.fa</t>
+          <t>even_MAG-GUT61735.fa</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.8619723716418648</v>
+        <v>0.9946358255157722</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0771661566589146</v>
+        <v>0.0001663956699219118</v>
       </c>
       <c r="D133" t="n">
-        <v>0.06086146969177973</v>
+        <v>0.005197778802303908</v>
       </c>
       <c r="E133" t="n">
-        <v>2.007440875692294e-09</v>
+        <v>1.200207549992145e-11</v>
       </c>
       <c r="F133" t="n">
-        <v>0.8619723716418648</v>
+        <v>0.9946358255157722</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -4703,23 +4703,23 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT9364.fa</t>
+          <t>even_MAG-GUT61794.fa</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.566444396642691</v>
+        <v>0.9998337208930796</v>
       </c>
       <c r="C134" t="n">
-        <v>0.2242693590505754</v>
+        <v>2.986454780485058e-05</v>
       </c>
       <c r="D134" t="n">
-        <v>0.209285936105921</v>
+        <v>0.0001364145543889577</v>
       </c>
       <c r="E134" t="n">
-        <v>3.08200812583849e-07</v>
+        <v>4.726484099885344e-12</v>
       </c>
       <c r="F134" t="n">
-        <v>0.566444396642691</v>
+        <v>0.9998337208930796</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -4735,23 +4735,23 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT9376.fa</t>
+          <t>even_MAG-GUT62134.fa</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.6874123538340813</v>
+        <v>0.9992874718206152</v>
       </c>
       <c r="C135" t="n">
-        <v>0.2080692797220708</v>
+        <v>3.082843910436505e-05</v>
       </c>
       <c r="D135" t="n">
-        <v>0.1045182281565018</v>
+        <v>0.0006816997382799127</v>
       </c>
       <c r="E135" t="n">
-        <v>1.382873460181338e-07</v>
+        <v>2.000611010146992e-12</v>
       </c>
       <c r="F135" t="n">
-        <v>0.6874123538340813</v>
+        <v>0.9992874718206152</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -4767,23 +4767,23 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT9688.fa</t>
+          <t>even_MAG-GUT62370.fa</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.9985896083828514</v>
+        <v>0.997835601642635</v>
       </c>
       <c r="C136" t="n">
-        <v>1.568929299863734e-05</v>
+        <v>6.918269894181883e-05</v>
       </c>
       <c r="D136" t="n">
-        <v>0.001394701759673349</v>
+        <v>0.002095215635543054</v>
       </c>
       <c r="E136" t="n">
-        <v>5.644766155693569e-10</v>
+        <v>2.288013374312971e-11</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9985896083828514</v>
+        <v>0.997835601642635</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -4799,30 +4799,1502 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT62468.fa</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0.9999856302431298</v>
+      </c>
+      <c r="C137" t="n">
+        <v>4.254086098185088e-06</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.011566776550851e-05</v>
+      </c>
+      <c r="E137" t="n">
+        <v>3.006455947701792e-12</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.9999856302431298</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6615.fa</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.9997450776885418</v>
+      </c>
+      <c r="C138" t="n">
+        <v>5.539292041785982e-05</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.0001995293885645287</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2.475977394974651e-12</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.9997450776885418</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT66915.fa</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.9995790668576187</v>
+      </c>
+      <c r="C139" t="n">
+        <v>5.120400161552161e-05</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.0003697286361834119</v>
+      </c>
+      <c r="E139" t="n">
+        <v>5.04582304239909e-10</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.9995790668576187</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6727.fa</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0.9995828851494168</v>
+      </c>
+      <c r="C140" t="n">
+        <v>9.026171059943384e-05</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.0003268531346895258</v>
+      </c>
+      <c r="E140" t="n">
+        <v>5.294277176904082e-12</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.9995828851494168</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6753.fa</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.9996139697138627</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.000200079673358623</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.0001859505539518225</v>
+      </c>
+      <c r="E141" t="n">
+        <v>5.882685370079533e-11</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.9996139697138627</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT67531.fa</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0.9996773223538429</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.0001122050281455792</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.0002104726149949413</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3.016454185994035e-12</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.9996773223538429</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6784.fa</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0.9946816599487408</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.002326179076121521</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.002992160809415304</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.657223771998594e-10</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.9946816599487408</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT68234.fa</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.9367194156672077</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.01763098734030056</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.04564931378121401</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2.832112777100451e-07</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.9367194156672077</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT68537.fa</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0.7653553971389785</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.1240603707034436</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.1105807934061036</v>
+      </c>
+      <c r="E145" t="n">
+        <v>3.438751474220336e-06</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.7653553971389785</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT68996.fa</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0.9998504127756583</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2.658554479523021e-05</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.0001230016782289023</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.317633626495827e-12</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.9998504127756583</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT69662.fa</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0.9967764684289172</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.000235977374480908</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.002987554169967795</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2.663397007701701e-11</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.9967764684289172</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7016.fa</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.9999858693769753</v>
+      </c>
+      <c r="C148" t="n">
+        <v>3.912873871928124e-07</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.373933371081821e-05</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.92674910980326e-12</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.9999858693769753</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7042.fa</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0.9991254148168731</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.0002475472706226979</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.0006270378907224929</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2.178157988185357e-11</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.9991254148168731</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT73967.fa</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0.9994325798221091</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.0003078210096937368</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.000259599052082339</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.161148093987203e-10</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.9994325798221091</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT74311.fa</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0.9999472160287344</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1.818466994774623e-05</v>
+      </c>
+      <c r="D151" t="n">
+        <v>3.459930076215781e-05</v>
+      </c>
+      <c r="E151" t="n">
+        <v>5.557735319314154e-13</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.9999472160287344</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7546.fa</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0.2982625328941562</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.4785695707245523</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.2231678042083946</v>
+      </c>
+      <c r="E152" t="n">
+        <v>9.217289698845346e-08</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.4785695707245523</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>o__Enterobacterales</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>o__Enterobacterales(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT75471.fa</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0.9982725693822172</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.0001257807954343498</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.00160164971286214</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1.09486517473329e-10</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.9982725693822172</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT75788.fa</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0.9999670750257585</v>
+      </c>
+      <c r="C154" t="n">
+        <v>3.282455914372215e-05</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.004088754664592e-07</v>
+      </c>
+      <c r="E154" t="n">
+        <v>6.222377163871885e-12</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.9999670750257585</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT75820.fa</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0.999916040117572</v>
+      </c>
+      <c r="C155" t="n">
+        <v>8.392124898076504e-05</v>
+      </c>
+      <c r="D155" t="n">
+        <v>3.861539751196583e-08</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.804955792494502e-11</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.999916040117572</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT75834.fa</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0.9999909759862957</v>
+      </c>
+      <c r="C156" t="n">
+        <v>8.957177975668067e-06</v>
+      </c>
+      <c r="D156" t="n">
+        <v>6.671862232776915e-08</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1.171063870712983e-10</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.9999909759862957</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT77563.fa</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0.9992354476789524</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.0001025973502133852</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.0006619546973478146</v>
+      </c>
+      <c r="E157" t="n">
+        <v>2.734864504096537e-10</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.9992354476789524</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT78371.fa</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0.9999897429290217</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.021806582854233e-05</v>
+      </c>
+      <c r="D158" t="n">
+        <v>3.893842475267975e-08</v>
+      </c>
+      <c r="E158" t="n">
+        <v>6.672509365167242e-11</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.9999897429290217</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80384.fa</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0.9999600423860143</v>
+      </c>
+      <c r="C159" t="n">
+        <v>3.629837068999776e-08</v>
+      </c>
+      <c r="D159" t="n">
+        <v>3.992131187915731e-05</v>
+      </c>
+      <c r="E159" t="n">
+        <v>3.735810350186901e-12</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.9999600423860143</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80449.fa</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0.9993947332017543</v>
+      </c>
+      <c r="C160" t="n">
+        <v>7.430319746564039e-05</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.0005309635051932957</v>
+      </c>
+      <c r="E160" t="n">
+        <v>9.558655083639645e-11</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.9993947332017543</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80685.fa</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0.8689883531791656</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.003178160903820011</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.1278333573582981</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.285587162202795e-07</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.8689883531791656</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80720.fa</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0.9999991210061936</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.013930855166265e-09</v>
+      </c>
+      <c r="D162" t="n">
+        <v>8.774560202635851e-07</v>
+      </c>
+      <c r="E162" t="n">
+        <v>5.238552844451246e-10</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.9999991210061936</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80804.fa</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0.9991297000873325</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.0002045761789808374</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.0006657237253395419</v>
+      </c>
+      <c r="E163" t="n">
+        <v>8.347102669420456e-12</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.9991297000873325</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81029.fa</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0.998564094056451</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.0001845560711781134</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.001251349843355664</v>
+      </c>
+      <c r="E164" t="n">
+        <v>2.901526165293545e-11</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.998564094056451</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81145.fa</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0.9977263769571442</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.0002277524227642383</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.00204587060230581</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.778584275444814e-11</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.9977263769571442</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81204.fa</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0.9982201784605205</v>
+      </c>
+      <c r="C166" t="n">
+        <v>5.606763404730646e-05</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.001723753874525371</v>
+      </c>
+      <c r="E166" t="n">
+        <v>3.090670670920895e-11</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.9982201784605205</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81432.fa</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0.9960101565959789</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.002725483518697714</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.001264359856103435</v>
+      </c>
+      <c r="E167" t="n">
+        <v>2.921992938110588e-11</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.9960101565959789</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT8151.fa</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1.403051467987774e-08</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.9996943093761634</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.0003056750044104829</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1.588911317491942e-09</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.9996943093761634</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>o__Enterobacterales</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>o__Enterobacterales</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81523.fa</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>0.9997948836746061</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.0001658665456941751</v>
+      </c>
+      <c r="D169" t="n">
+        <v>3.924965953418027e-05</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1.20165341054736e-10</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.9997948836746061</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82115.fa</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>0.9999417790688213</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2.099264337897174e-05</v>
+      </c>
+      <c r="D170" t="n">
+        <v>3.722828629116696e-05</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1.508619540719803e-12</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.9999417790688213</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT83592.fa</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>0.9987068660645182</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.0001134577650614496</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.001179659815295057</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.635512538378168e-08</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.9987068660645182</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT84859.fa</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>0.9994926070215652</v>
+      </c>
+      <c r="C172" t="n">
+        <v>6.837020684106948e-05</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.000439015786578076</v>
+      </c>
+      <c r="E172" t="n">
+        <v>6.98501584190079e-09</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.9994926070215652</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90614.fa</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>0.8784509481581463</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.1147039116987632</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.006845139622014265</v>
+      </c>
+      <c r="E173" t="n">
+        <v>5.210762225951355e-10</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.8784509481581463</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90671.fa</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>0.5025326918440816</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.3665638400546075</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.130903467628604</v>
+      </c>
+      <c r="E174" t="n">
+        <v>4.727069546128784e-10</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.5025326918440816</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90675.fa</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0.611562860177749</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.2916089188294001</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.09682821560235871</v>
+      </c>
+      <c r="E175" t="n">
+        <v>5.390492429639251e-09</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.611562860177749</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90775.fa</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>0.7407944054474063</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.2372926783503566</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.02191291594366149</v>
+      </c>
+      <c r="E176" t="n">
+        <v>2.585756231168987e-10</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.7407944054474063</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90995.fa</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>0.8619723716418648</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.0771661566589146</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.06086146969177973</v>
+      </c>
+      <c r="E177" t="n">
+        <v>2.007440875692294e-09</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.8619723716418648</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91702.fa</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>0.0002302551760225757</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.9997487183867955</v>
+      </c>
+      <c r="D178" t="n">
+        <v>2.102350949259934e-05</v>
+      </c>
+      <c r="E178" t="n">
+        <v>2.927689407041716e-09</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.9997487183867955</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>o__Enterobacterales</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>o__Enterobacterales</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91898.fa</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>5.508266385070094e-05</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.9999158450506568</v>
+      </c>
+      <c r="D179" t="n">
+        <v>2.906431671575739e-05</v>
+      </c>
+      <c r="E179" t="n">
+        <v>7.968776847847593e-09</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.9999158450506568</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>o__Enterobacterales</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>o__Enterobacterales</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9364.fa</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0.566444396642691</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.2242693590505754</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.209285936105921</v>
+      </c>
+      <c r="E180" t="n">
+        <v>3.08200812583849e-07</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.566444396642691</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9376.fa</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>0.6874123538340813</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.2080692797220708</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.1045182281565018</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.382873460181338e-07</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.6874123538340813</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9688.fa</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>0.9985896083828514</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1.568929299863734e-05</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.001394701759673349</v>
+      </c>
+      <c r="E182" t="n">
+        <v>5.644766155693569e-10</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.9985896083828514</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT9692.fa</t>
         </is>
       </c>
-      <c r="B137" t="n">
+      <c r="B183" t="n">
         <v>0.9973575348137452</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C183" t="n">
         <v>2.388906508110174e-05</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D183" t="n">
         <v>0.002618575520370709</v>
       </c>
-      <c r="E137" t="n">
+      <c r="E183" t="n">
         <v>6.008029236079889e-10</v>
       </c>
-      <c r="F137" t="n">
+      <c r="F183" t="n">
         <v>0.9973575348137452</v>
       </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>o__Burkholderiales</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>o__Burkholderiales</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
         <is>
           <t>o__Burkholderiales</t>
         </is>
